--- a/images.xlsx
+++ b/images.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{CADE6E44-CF18-4155-89DD-DB6D30E50D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951F1CDD-47F4-4A69-975A-DA1B20FB6C90}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tobii-my.sharepoint.com/personal/ao1733_tobii_com/Documents/Desktop/PsychoPy/EEG experiment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_D314AE8F02D700CD9DBCD4915F8BCCFB9B5C8421" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180868A3-0E82-4E65-82E6-2A697453AFEB}"/>
   <bookViews>
-    <workbookView xWindow="47595" yWindow="2550" windowWidth="9210" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,50 +25,56 @@
     <t>images</t>
   </si>
   <si>
-    <t>img1.png</t>
-  </si>
-  <si>
-    <t>img2.png</t>
-  </si>
-  <si>
-    <t>img3.png</t>
-  </si>
-  <si>
-    <t>img4.png</t>
-  </si>
-  <si>
-    <t>img5.png</t>
-  </si>
-  <si>
-    <t>img6.png</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
+    <t>target_x</t>
+  </si>
+  <si>
+    <t>target_y</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>high</t>
   </si>
   <si>
-    <t>target_x</t>
-  </si>
-  <si>
-    <t>target_y</t>
+    <t>data/img1.png</t>
+  </si>
+  <si>
+    <t>data/img2.png</t>
+  </si>
+  <si>
+    <t>data/img3.png</t>
+  </si>
+  <si>
+    <t>data/img4.png</t>
+  </si>
+  <si>
+    <t>data/img5.png</t>
+  </si>
+  <si>
+    <t>data/img6.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +85,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -91,14 +104,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -145,20 +164,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -188,12 +207,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -232,250 +251,279 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.34875</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.19125</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.27374999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.85958333333333303</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.24520833333333</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.64520833333333305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>-0.34875</v>
-      </c>
-      <c r="D2">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.19125</v>
-      </c>
-      <c r="D3">
-        <v>-0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0.42249999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.27374999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0.85958333333333303</v>
-      </c>
-      <c r="D5">
-        <v>0.38333333333333303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.24520833333333</v>
-      </c>
-      <c r="D6">
-        <v>0.64520833333333305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.63083333333333003</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.90708333333333302</v>
       </c>
     </row>

--- a/images.xlsx
+++ b/images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tobii-my.sharepoint.com/personal/ao1733_tobii_com/Documents/Desktop/PsychoPy/EEG experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_D314AE8F02D700CD9DBCD4915F8BCCFB9B5C8421" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180868A3-0E82-4E65-82E6-2A697453AFEB}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_B55CEF8DC2D600CD9DBCD4606F1D759F8378C492" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D085A515-247C-45C2-8B92-ABC04076CF16}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="8640" windowWidth="26850" windowHeight="22755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>images</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>target_x</t>
   </si>
   <si>
@@ -40,22 +37,25 @@
     <t>high</t>
   </si>
   <si>
-    <t>data/img1.png</t>
-  </si>
-  <si>
-    <t>data/img2.png</t>
-  </si>
-  <si>
-    <t>data/img3.png</t>
-  </si>
-  <si>
-    <t>data/img4.png</t>
-  </si>
-  <si>
-    <t>data/img5.png</t>
-  </si>
-  <si>
-    <t>data/img6.png</t>
+    <t>img1.png</t>
+  </si>
+  <si>
+    <t>img2.png</t>
+  </si>
+  <si>
+    <t>img3.png</t>
+  </si>
+  <si>
+    <t>img4.png</t>
+  </si>
+  <si>
+    <t>img5.png</t>
+  </si>
+  <si>
+    <t>img6.png</t>
+  </si>
+  <si>
+    <t>diff_level</t>
   </si>
 </sst>
 </file>
@@ -72,7 +72,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -106,10 +106,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -420,110 +420,110 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1">
+        <v>-0.34875</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>-0.34875</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="1">
+        <v>0.19125</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.19125</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.27374999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.42249999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.27374999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.85958333333333303</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.38333333333333303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.85958333333333303</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.38333333333333303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.24520833333333</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.64520833333333305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.24520833333333</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.64520833333333305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.63083333333333003</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.90708333333333302</v>
       </c>
     </row>

--- a/images.xlsx
+++ b/images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tobii-my.sharepoint.com/personal/ao1733_tobii_com/Documents/Desktop/PsychoPy/EEG experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\eeg-experiment-main\eeg-experiment-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_B55CEF8DC2D600CD9DBCD4606F1D759F8378C492" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D085A515-247C-45C2-8B92-ABC04076CF16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529CDFDA-F587-41EB-B0A6-D0170FC35C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="8640" windowWidth="26850" windowHeight="22755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,9 @@
     <t>high</t>
   </si>
   <si>
+    <t>diff_level</t>
+  </si>
+  <si>
     <t>img1.png</t>
   </si>
   <si>
@@ -53,28 +56,19 @@
   </si>
   <si>
     <t>img6.png</t>
-  </si>
-  <si>
-    <t>diff_level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,14 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,11 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -420,21 +404,22 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -443,88 +428,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>-0.34875</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.16018518518518499</v>
+      </c>
+      <c r="D2">
+        <v>-0.43611111111111101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.19125</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.75833333333333297</v>
+      </c>
+      <c r="D3">
+        <v>-9.9074074074073995E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.42249999999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.27374999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-0.20740740740740701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.85958333333333303</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.38333333333333303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>-0.42777777777777698</v>
+      </c>
+      <c r="D5">
+        <v>-0.19166666666666601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.24520833333333</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.64520833333333305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>-0.50925925925925897</v>
+      </c>
+      <c r="D6">
+        <v>0.141666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.63083333333333003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.90708333333333302</v>
+      <c r="C7">
+        <v>0.67592592592592504</v>
+      </c>
+      <c r="D7">
+        <v>0.29537037037037001</v>
       </c>
     </row>
   </sheetData>
